--- a/server/resources/static/assets/uploads/People.xlsx
+++ b/server/resources/static/assets/uploads/People.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhaber\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rit0-my.sharepoint.com/personal/jxh6709_rit_edu/Documents/RIT/Spring 2020/IGME 430/Final/430FinalProject/resources/static/assets/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53AB1EF-34A0-460D-B0DC-B83A65B3BFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D82379A32E50002C9F159204165E82011494BC30" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE075411-7532-4A80-A673-3526FCDC6D5C}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1170" windowWidth="21660" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring 2020" sheetId="1" r:id="rId1"/>
@@ -1146,9 +1146,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1326,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1358,6 +1359,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1369,6 +1373,9 @@
     </xf>
     <xf numFmtId="6" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1388,6 +1395,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1400,7 +1410,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,9 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1645,7 @@
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="50.5" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="12" width="9.125" customWidth="1"/>
@@ -1673,10 +1682,10 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1701,21 +1710,21 @@
       <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="11">
         <v>33937</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <f t="shared" ref="I2:I69" ca="1" si="1">NOW()</f>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J2" s="12">
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J2" s="13">
         <f t="shared" ref="J2:J3" ca="1" si="2">VLOOKUP(C2,$K$2:$L$49,2,TRUE)</f>
         <v>1236</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="15">
         <v>920</v>
       </c>
     </row>
@@ -1742,21 +1751,21 @@
       <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="16">
         <v>43466</v>
       </c>
-      <c r="I3" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J3" s="13">
         <f t="shared" ca="1" si="2"/>
         <v>920</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="15">
         <v>920</v>
       </c>
     </row>
@@ -1777,26 +1786,26 @@
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="11">
         <v>29221</v>
       </c>
-      <c r="I4" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>2</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="15">
         <v>920</v>
       </c>
     </row>
@@ -1823,60 +1832,60 @@
       <c r="G5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="16">
         <v>40802</v>
       </c>
-      <c r="I5" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J5" s="13">
         <v>966</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="14">
         <v>3</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="15">
         <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="16">
         <v>43831</v>
       </c>
-      <c r="I6" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J6" s="13">
         <v>920</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <v>4</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="15">
         <v>920</v>
       </c>
     </row>
@@ -1903,20 +1912,20 @@
       <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="11">
         <v>38231</v>
       </c>
-      <c r="I7" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I7" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J7" s="13">
         <v>50</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>5</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="15">
         <v>920</v>
       </c>
     </row>
@@ -1931,33 +1940,33 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="11">
         <v>43313</v>
       </c>
-      <c r="I8" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" ref="J8:J15" ca="1" si="3">VLOOKUP(C8,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>6</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="15">
         <v>966</v>
       </c>
     </row>
@@ -1972,33 +1981,33 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="11">
         <v>43313</v>
       </c>
-      <c r="I9" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" ca="1" si="3"/>
         <v>920</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>7</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <v>966</v>
       </c>
     </row>
@@ -2025,21 +2034,21 @@
       <c r="G10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="11">
         <v>42736</v>
       </c>
-      <c r="I10" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" ca="1" si="3"/>
         <v>920</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <v>8</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="15">
         <v>966</v>
       </c>
     </row>
@@ -2066,21 +2075,21 @@
       <c r="G11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="16">
         <v>43466</v>
       </c>
-      <c r="I11" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" ca="1" si="3"/>
         <v>920</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <v>9</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="15">
         <v>966</v>
       </c>
     </row>
@@ -2107,21 +2116,21 @@
       <c r="G12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="11">
         <v>40156</v>
       </c>
-      <c r="I12" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" ca="1" si="3"/>
         <v>966</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="14">
         <v>10</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="15">
         <v>966</v>
       </c>
     </row>
@@ -2132,7 +2141,7 @@
       <c r="B13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="21">
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2147,21 +2156,21 @@
       <c r="G13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>37500</v>
       </c>
-      <c r="I13" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I13" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="3"/>
         <v>920</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="14">
         <v>11</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="15">
         <v>1004</v>
       </c>
     </row>
@@ -2188,21 +2197,21 @@
       <c r="G14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="16">
         <v>43709</v>
       </c>
-      <c r="I14" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J14" s="13">
         <f t="shared" ca="1" si="3"/>
         <v>920</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="14">
         <v>12</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="15">
         <v>1004</v>
       </c>
     </row>
@@ -2229,21 +2238,21 @@
       <c r="G15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="11">
         <v>39600</v>
       </c>
-      <c r="I15" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="I15" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" ca="1" si="3"/>
         <v>1004</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="14">
         <v>13</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="15">
         <v>1004</v>
       </c>
     </row>
@@ -2270,20 +2279,20 @@
       <c r="G16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="11">
         <v>29311</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1236</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="I16" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1236</v>
+      </c>
+      <c r="K16" s="14">
         <v>14</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="15">
         <v>1004</v>
       </c>
     </row>
@@ -2310,20 +2319,20 @@
       <c r="G17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="11">
         <v>42248</v>
       </c>
-      <c r="I17" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="I17" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J17" s="13">
         <v>920</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>15</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="15">
         <v>1004</v>
       </c>
     </row>
@@ -2350,20 +2359,20 @@
       <c r="G18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="16">
         <v>43709</v>
       </c>
-      <c r="I18" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J18" s="12">
+      <c r="I18" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J18" s="13">
         <v>920</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="14">
         <v>16</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="15">
         <v>1082</v>
       </c>
     </row>
@@ -2387,31 +2396,31 @@
       <c r="F19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="11">
         <v>42607</v>
       </c>
-      <c r="I19" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="I19" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J19" s="13">
         <v>50</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="14">
         <v>17</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="15">
         <v>1082</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="8">
@@ -2430,20 +2439,20 @@
       <c r="G20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="11">
         <v>36449</v>
       </c>
-      <c r="I20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1236</v>
-      </c>
-      <c r="K20" s="13">
+      <c r="I20" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1236</v>
+      </c>
+      <c r="K20" s="14">
         <v>18</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="15">
         <v>1082</v>
       </c>
     </row>
@@ -2470,21 +2479,21 @@
       <c r="G21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="16">
         <v>43466</v>
       </c>
-      <c r="I21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J21" s="13">
         <f ca="1">VLOOKUP(C21,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="14">
         <v>19</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="15">
         <v>1082</v>
       </c>
     </row>
@@ -2511,20 +2520,20 @@
       <c r="G22" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="11">
         <v>40148</v>
       </c>
-      <c r="I22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="I22" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J22" s="13">
         <v>1004</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="14">
         <v>20</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="15">
         <v>1082</v>
       </c>
     </row>
@@ -2551,21 +2560,21 @@
       <c r="G23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="11">
         <v>37500</v>
       </c>
-      <c r="I23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J23" s="12">
+      <c r="I23" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J23" s="13">
         <f t="shared" ref="J23:J27" ca="1" si="5">VLOOKUP(C23,$K$2:$L$49,2,TRUE)</f>
         <v>1082</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="14">
         <v>21</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2592,21 +2601,21 @@
       <c r="G24" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="16">
         <v>43709</v>
       </c>
-      <c r="I24" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="I24" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J24" s="13">
         <f t="shared" ca="1" si="5"/>
         <v>920</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <v>22</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2633,21 +2642,21 @@
       <c r="G25" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="11">
         <v>41153</v>
       </c>
-      <c r="I25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J25" s="12">
+      <c r="I25" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J25" s="13">
         <f t="shared" ca="1" si="5"/>
         <v>966</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="14">
         <v>23</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2674,21 +2683,21 @@
       <c r="G26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="16">
         <v>43466</v>
       </c>
-      <c r="I26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J26" s="12">
+      <c r="I26" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J26" s="13">
         <f t="shared" ca="1" si="5"/>
         <v>920</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="14">
         <v>24</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2715,21 +2724,21 @@
       <c r="G27" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="16">
         <v>41883</v>
       </c>
-      <c r="I27" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J27" s="12">
+      <c r="I27" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J27" s="13">
         <f t="shared" ca="1" si="5"/>
         <v>920</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="14">
         <v>25</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2756,20 +2765,20 @@
       <c r="G28" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="16">
         <v>39600</v>
       </c>
-      <c r="I28" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="I28" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J28" s="13">
         <v>1004</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="14">
         <v>26</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2796,21 +2805,21 @@
       <c r="G29" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="11">
         <v>40057</v>
       </c>
-      <c r="I29" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J29" s="12">
+      <c r="I29" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J29" s="13">
         <f t="shared" ref="J29:J32" ca="1" si="6">VLOOKUP(C29,$K$2:$L$49,2,TRUE)</f>
         <v>966</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="14">
         <v>27</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2837,21 +2846,21 @@
       <c r="G30" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="16">
         <v>43709</v>
       </c>
-      <c r="I30" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J30" s="12">
+      <c r="I30" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J30" s="13">
         <f t="shared" ca="1" si="6"/>
         <v>920</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="14">
         <v>28</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2878,21 +2887,21 @@
       <c r="G31" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="11">
         <v>35272</v>
       </c>
-      <c r="I31" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J31" s="12">
+      <c r="I31" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J31" s="13">
         <f t="shared" ca="1" si="6"/>
         <v>1236</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="14">
         <v>29</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2919,21 +2928,21 @@
       <c r="G32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="11">
         <v>42256</v>
       </c>
-      <c r="I32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J32" s="12">
+      <c r="I32" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J32" s="13">
         <f t="shared" ca="1" si="6"/>
         <v>920</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="14">
         <v>30</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -2960,28 +2969,28 @@
       <c r="G33" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="11">
         <v>38777</v>
       </c>
-      <c r="I33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J33" s="12">
+      <c r="I33" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J33" s="13">
         <v>1004</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="14">
         <v>31</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C34" s="8">
@@ -2997,24 +3006,24 @@
       <c r="F34" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="16">
         <v>42370</v>
       </c>
-      <c r="I34" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J34" s="12">
+      <c r="I34" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J34" s="13">
         <f t="shared" ref="J34:J35" ca="1" si="7">VLOOKUP(C34,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="14">
         <v>32</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3029,33 +3038,33 @@
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="11">
         <v>43313</v>
       </c>
-      <c r="I35" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J35" s="12">
+      <c r="I35" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J35" s="13">
         <f t="shared" ca="1" si="7"/>
         <v>920</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="14">
         <v>33</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3082,21 +3091,21 @@
       <c r="G36" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="16">
         <v>29899</v>
       </c>
-      <c r="I36" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J36" s="12">
+      <c r="I36" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J36" s="13">
         <f ca="1">VLOOKUP(C36,$K$2:$L$49,2,TRUE)</f>
         <v>1236</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="14">
         <v>34</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3123,60 +3132,60 @@
       <c r="G37" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="16">
         <v>41883</v>
       </c>
-      <c r="I37" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J37" s="12">
+      <c r="I37" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J37" s="13">
         <v>0</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="14">
         <v>35</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>214</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="16">
         <v>43831</v>
       </c>
-      <c r="I38" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J38" s="12">
+      <c r="I38" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J38" s="13">
         <v>920</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="14">
         <v>36</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3203,20 +3212,20 @@
       <c r="G39" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="16">
         <v>36770</v>
       </c>
-      <c r="I39" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J39" s="12">
+      <c r="I39" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J39" s="13">
         <v>0</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="14">
         <v>37</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3243,21 +3252,21 @@
       <c r="G40" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="11">
         <v>41153</v>
       </c>
-      <c r="I40" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J40" s="12">
+      <c r="I40" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J40" s="13">
         <f t="shared" ref="J40:J41" ca="1" si="8">VLOOKUP(C40,$K$2:$L$49,2,TRUE)</f>
         <v>966</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="14">
         <v>38</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3284,21 +3293,21 @@
       <c r="G41" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="11">
         <v>39879</v>
       </c>
-      <c r="I41" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J41" s="12">
+      <c r="I41" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J41" s="13">
         <f t="shared" ca="1" si="8"/>
         <v>1004</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="14">
         <v>39</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3325,28 +3334,28 @@
       <c r="G42" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="16">
         <v>36770</v>
       </c>
-      <c r="I42" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J42" s="12">
+      <c r="I42" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J42" s="13">
         <v>0</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="14">
         <v>40</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C43" s="8">
@@ -3365,20 +3374,20 @@
       <c r="G43" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="11">
         <v>40422</v>
       </c>
-      <c r="I43" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J43" s="12">
+      <c r="I43" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J43" s="13">
         <v>50</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="14">
         <v>41</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3405,21 +3414,21 @@
       <c r="G44" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="16">
         <v>43466</v>
       </c>
-      <c r="I44" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J44" s="12">
+      <c r="I44" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J44" s="13">
         <f ca="1">VLOOKUP(C44,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="14">
         <v>42</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3446,20 +3455,20 @@
       <c r="G45" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="16">
         <v>41883</v>
       </c>
-      <c r="I45" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J45" s="12">
+      <c r="I45" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J45" s="13">
         <v>920</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="14">
         <v>43</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3486,20 +3495,20 @@
       <c r="G46" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="16">
         <v>42370</v>
       </c>
-      <c r="I46" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J46" s="12">
+      <c r="I46" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J46" s="13">
         <v>920</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="14">
         <v>44</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3523,23 +3532,23 @@
       <c r="F47" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="11">
         <v>36434</v>
       </c>
-      <c r="I47" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J47" s="12">
+      <c r="I47" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J47" s="13">
         <v>1082</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="14">
         <v>45</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3563,24 +3572,24 @@
       <c r="F48" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="16">
         <v>43831</v>
       </c>
-      <c r="I48" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J48" s="12">
+      <c r="I48" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J48" s="13">
         <f ca="1">VLOOKUP(C48,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="14">
         <v>46</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3607,20 +3616,20 @@
       <c r="G49" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="16">
         <v>43709</v>
       </c>
-      <c r="I49" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J49" s="12">
+      <c r="I49" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J49" s="13">
         <v>0</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="14">
         <v>48</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3647,29 +3656,29 @@
       <c r="G50" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="16">
         <v>43709</v>
       </c>
-      <c r="I50" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J50" s="12">
+      <c r="I50" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J50" s="13">
         <f t="shared" ref="J50:J56" ca="1" si="9">VLOOKUP(C50,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="14">
         <v>48</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="19" t="s">
         <v>120</v>
       </c>
       <c r="C51" s="8">
@@ -3688,21 +3697,21 @@
       <c r="G51" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="16">
         <v>43344</v>
       </c>
-      <c r="I51" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J51" s="12">
+      <c r="I51" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J51" s="13">
         <f t="shared" ca="1" si="9"/>
         <v>920</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="14">
         <v>48</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3729,21 +3738,21 @@
       <c r="G52" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="16">
         <v>43466</v>
       </c>
-      <c r="I52" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J52" s="12">
+      <c r="I52" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J52" s="13">
         <f t="shared" ca="1" si="9"/>
         <v>920</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="14">
         <v>48</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3767,24 +3776,24 @@
       <c r="F53" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="16">
         <v>40459</v>
       </c>
-      <c r="I53" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J53" s="12">
+      <c r="I53" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J53" s="13">
         <f t="shared" ca="1" si="9"/>
         <v>966</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="14">
         <v>48</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3792,7 +3801,7 @@
       <c r="A54" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C54" s="8">
@@ -3811,21 +3820,21 @@
       <c r="G54" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="11">
         <v>38751</v>
       </c>
-      <c r="I54" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J54" s="12">
+      <c r="I54" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J54" s="13">
         <f t="shared" ca="1" si="9"/>
         <v>1004</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="14">
         <v>48</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3852,29 +3861,29 @@
       <c r="G55" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="16">
         <v>43466</v>
       </c>
-      <c r="I55" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J55" s="12">
+      <c r="I55" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J55" s="13">
         <f t="shared" ca="1" si="9"/>
         <v>920</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="14">
         <v>48</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="19" t="s">
         <v>300</v>
       </c>
       <c r="C56" s="8">
@@ -3893,69 +3902,69 @@
       <c r="G56" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="16">
         <v>29465</v>
       </c>
-      <c r="I56" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J56" s="12">
+      <c r="I56" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J56" s="13">
         <f t="shared" ca="1" si="9"/>
         <v>1236</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="14">
         <v>48</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="19" t="s">
         <v>305</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="16">
         <v>43831</v>
       </c>
-      <c r="I57" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J57" s="12">
+      <c r="I57" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J57" s="13">
         <v>920</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="14">
         <v>48</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="15">
         <v>1236</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="19" t="s">
         <v>310</v>
       </c>
       <c r="C58" s="8">
@@ -3974,21 +3983,21 @@
       <c r="G58" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H58" s="11">
         <v>39692</v>
       </c>
-      <c r="I58" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J58" s="12">
+      <c r="I58" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J58" s="13">
         <f t="shared" ref="J58:J59" ca="1" si="10">VLOOKUP(C58,$K$2:$L$49,2,TRUE)</f>
         <v>1004</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="14">
         <v>48</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -3996,7 +4005,7 @@
       <c r="A59" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="21" t="s">
         <v>315</v>
       </c>
       <c r="C59" s="8">
@@ -4015,21 +4024,21 @@
       <c r="G59" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="11">
         <v>26543</v>
       </c>
-      <c r="I59" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J59" s="12">
+      <c r="I59" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J59" s="13">
         <f t="shared" ca="1" si="10"/>
         <v>1236</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="14">
         <v>48</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4056,20 +4065,20 @@
       <c r="G60" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="16">
         <v>43831</v>
       </c>
-      <c r="I60" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J60" s="12">
+      <c r="I60" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J60" s="13">
         <v>920</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="14">
         <v>48</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4096,21 +4105,21 @@
       <c r="G61" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="11">
         <v>42736</v>
       </c>
-      <c r="I61" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J61" s="12">
+      <c r="I61" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J61" s="13">
         <f t="shared" ref="J61:J62" ca="1" si="12">VLOOKUP(C61,$K$2:$L$49,2,TRUE)</f>
         <v>920</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="14">
         <v>48</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4137,21 +4146,21 @@
       <c r="G62" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="H62" s="25">
+      <c r="H62" s="11">
         <v>38078</v>
       </c>
-      <c r="I62" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="I62" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J62" s="13">
         <f t="shared" ca="1" si="12"/>
         <v>1082</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K62" s="14">
         <v>48</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4178,20 +4187,20 @@
       <c r="G63" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="11">
         <v>34943</v>
       </c>
-      <c r="I63" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J63" s="12">
-        <v>1236</v>
-      </c>
-      <c r="K63" s="13">
+      <c r="I63" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J63" s="13">
+        <v>1236</v>
+      </c>
+      <c r="K63" s="14">
         <v>48</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4218,20 +4227,20 @@
       <c r="G64" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="H64" s="25">
+      <c r="H64" s="16">
         <v>41518</v>
       </c>
-      <c r="I64" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J64" s="12">
+      <c r="I64" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J64" s="13">
         <v>966</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="14">
         <v>48</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4258,20 +4267,20 @@
       <c r="G65" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="11">
         <v>40057</v>
       </c>
-      <c r="I65" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J65" s="12">
+      <c r="I65" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J65" s="13">
         <v>966</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="14">
         <v>48</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4298,20 +4307,20 @@
       <c r="G66" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="16">
         <v>41426</v>
       </c>
-      <c r="I66" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J66" s="12">
+      <c r="I66" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J66" s="13">
         <v>966</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="14">
         <v>48</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4338,20 +4347,20 @@
       <c r="G67" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="16">
         <v>40969</v>
       </c>
-      <c r="I67" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J67" s="12">
+      <c r="I67" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J67" s="13">
         <v>966</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K67" s="14">
         <v>48</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4378,20 +4387,20 @@
       <c r="G68" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H68" s="11">
         <v>38047</v>
       </c>
-      <c r="I68" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J68" s="12">
+      <c r="I68" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J68" s="13">
         <v>1004</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="14">
         <v>48</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4406,32 +4415,32 @@
         <f t="shared" ca="1" si="11"/>
         <v>14</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H69" s="11">
         <v>38777</v>
       </c>
-      <c r="I69" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44049.726943055553</v>
-      </c>
-      <c r="J69" s="12">
+      <c r="I69" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44049.713106249998</v>
+      </c>
+      <c r="J69" s="13">
         <v>0</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="14">
         <v>48</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="15">
         <v>1236</v>
       </c>
     </row>
@@ -4505,6 +4514,6 @@
     <hyperlink ref="G69" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId64"/>
+  <pageSetup paperSize="3" orientation="landscape"/>
 </worksheet>
 </file>